--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\RS_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8D683-925E-447D-A9EF-544B6CE9BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40408998-678E-4D5F-A6C4-EAA25AD75194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B54FCB7-46C4-4142-A559-DF20E58FA1A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Product backlog Task</t>
   </si>
@@ -102,6 +105,12 @@
   </si>
   <si>
     <t>Product Backlog Day 2</t>
+  </si>
+  <si>
+    <t>Verbesserungen:</t>
+  </si>
+  <si>
+    <t>Offene Punkte:</t>
   </si>
 </sst>
 </file>
@@ -125,12 +134,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,15 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -488,253 +515,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFBF4A-C991-4A17-97F9-8FB0EFA4E178}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="75.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="1" max="1" width="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="L5" t="str">
+      <c r="B5" t="str">
         <f>A3</f>
         <v>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</v>
       </c>
-      <c r="N5" t="str">
-        <f>IF(A3 = L5,"", A3)</f>
+      <c r="D5" t="str">
+        <f>IF(A3 = B5,"", A3)</f>
         <v/>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P10" si="0">IF(L5 = A3, 0, IF(N5 = A3, 0, A3))</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
+      <c r="F5">
+        <f>IF(B5 = A3, 0, IF(D5 = A3, 0, A3))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" ref="L6:L10" si="1">A4</f>
+      <c r="B6" t="str">
+        <f>A4</f>
         <v>Die Sensoren für die Haupt- und Nebenfunktionen müssen ausgewählt werden</v>
       </c>
-      <c r="N6">
-        <f t="shared" ref="N5:N10" si="2">IF(A4 = L6, 0, A4)</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
+      <c r="D6">
+        <f>IF(A4 = B6, 0, A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>IF(B6 = A4, 0, IF(D6 = A4, 0, A4))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
+      <c r="B7" t="str">
+        <f>A5</f>
         <v>Aufbau des Joysticks auf dem Mindstorm-Controller</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>IF(A5 = B7, 0, A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>IF(B7 = A5, 0, IF(D7 = A5, 0, A5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
+      <c r="B8" t="str">
+        <f>A6</f>
         <v>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
+      <c r="D8">
+        <f>IF(A6 = B8, 0, A6)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>IF(B8 = A6, 0, IF(D8 = A6, 0, A6))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
+      <c r="B9" t="str">
+        <f>A7</f>
         <v>Aufbau des Magazins mit Dropdown Möglichkeit über einen kleinen Motor</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="D9">
+        <f>IF(A7 = B9, 0, A7)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>IF(B9 = A7, 0, IF(D9 = A7, 0, A7))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="str">
+        <f>A8</f>
         <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="D10">
+        <f>IF(A8 = B10, 0, A8)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>IF(B10 = A8, 0, IF(D10 = A8, 0, A8))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="R12" s="2">
-        <f>R5+R6+R7+R8+R9+R10</f>
+      <c r="H12" s="2">
+        <f>H5+H6+H7+H8+H9+H10</f>
         <v>6.5</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="R24" s="2">
-        <f>R17+R18+R19+R20+R21+R22</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
+      <c r="B19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <f>H29+H30+H31+H32+H33+H34</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="1" max="46" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\RS_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40408998-678E-4D5F-A6C4-EAA25AD75194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23FDE3-8392-4291-A995-CDDF42C1CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B54FCB7-46C4-4142-A559-DF20E58FA1A1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t>Product backlog Task</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</t>
   </si>
@@ -56,9 +53,6 @@
     <t>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</t>
   </si>
   <si>
-    <t>Aufbau des Magazins mit Dropdown Möglichkeit über einen kleinen Motor</t>
-  </si>
-  <si>
     <t>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</t>
   </si>
   <si>
@@ -68,27 +62,6 @@
     <t>Joystick Mechanische Funktion testen</t>
   </si>
   <si>
-    <t>Joystick Taster Funktionen zuweisen (oben, unten, links, rechts, betätigen)</t>
-  </si>
-  <si>
-    <t>Betätigen als Funktion zum schiessen erstellen</t>
-  </si>
-  <si>
-    <t>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf schiebt</t>
-  </si>
-  <si>
-    <t>Ist keine Munition mehr vorhanden soll diese eine akustische Meldung geben</t>
-  </si>
-  <si>
-    <t>Durch betätigen der mittleren Taste soll das Gewehr schiessen solange der Taster betätigt ist (Vollautomatisch)</t>
-  </si>
-  <si>
-    <t>Nach jedem Schuss muss eine Abfrage gewiss vorhandener Munition gestellt werden</t>
-  </si>
-  <si>
-    <t>Product Backlog Day 1</t>
-  </si>
-  <si>
     <t>To do</t>
   </si>
   <si>
@@ -98,19 +71,61 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Requested Time</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Product Backlog Day 2</t>
-  </si>
-  <si>
     <t>Verbesserungen:</t>
   </si>
   <si>
-    <t>Offene Punkte:</t>
+    <t>Sprint Backlog 16.04.2024</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 17.04.2024</t>
+  </si>
+  <si>
+    <t>Aufbau des Magazins mit Dropdown Möglichkeit mit Munitionsüberwachung</t>
+  </si>
+  <si>
+    <t>Openes:</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</t>
+  </si>
+  <si>
+    <t>Erstellung / Erweiterung des des Aktivitätsdiagrammes</t>
+  </si>
+  <si>
+    <t>Erstellung / Erweiterung des der User-Stories</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
+  </si>
+  <si>
+    <t>Joystick Taster Funktion zuweisen (oben, unten, links, rechts)</t>
+  </si>
+  <si>
+    <t>Betätigen als Funktion  zum schiessen erstellen</t>
+  </si>
+  <si>
+    <t>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf lässt</t>
+  </si>
+  <si>
+    <t>Ist die Munition knapp, soll eine akustische Meldung ertönen</t>
+  </si>
+  <si>
+    <t>Durch betätigen der mittleren Taste soll das Gewehr schiessen, solange der Taster betätig ist (Vollautomatisch)</t>
+  </si>
+  <si>
+    <t>Nach jedem Schuss muss eine Abfrage gewiss vorhandener Munition im Lauf gestellt werden</t>
+  </si>
+  <si>
+    <t>Erstellung / Erweiterung des Product Backlogs</t>
+  </si>
+  <si>
+    <t>Aufbau des Magazines mit Dropdown Möglichkeit und Munitionsüberwachung</t>
+  </si>
+  <si>
+    <t>Product backlog Referenz-Task</t>
   </si>
 </sst>
 </file>
@@ -134,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,7 +170,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -180,13 +225,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FF9999FF"/>
+      <color rgb="FFFF66CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -515,329 +581,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFBF4A-C991-4A17-97F9-8FB0EFA4E178}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="71" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>IF(A3 = B5, 0, A3)</f>
+        <v>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">IF(B5 = A3, 0, IF(D5 = A3, 0, A3))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Die Sensoren für die Haupt- und Nebenfunktionen müssen ausgewählt werden</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Aufbau des Joysticks auf dem Mindstorm-Controller</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f>IF(A6 = B8, 0, A6)</f>
+        <v>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>IF(A7 = B9, 0, A7)</f>
+        <v>Aufbau des Magazins mit Dropdown Möglichkeit mit Munitionsüberwachung</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="str">
+        <f>IF(A8 = B10, 0, A8)</f>
+        <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="str">
+        <f>A9</f>
+        <v>Aufbau Plan erstellen, für leichtes Nachbauen</v>
+      </c>
+      <c r="D11">
+        <f>IF(A9 = B11, 0, A9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D12" s="10" t="str">
+        <f>IF(A11 = B12, 0, A11)</f>
+        <v>Erstellung / Erweiterung des Product Backlogs</v>
+      </c>
+      <c r="F12">
+        <f>IF(B12 = A11, 0, IF(D12 = A11, 0, A11))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D13" s="10" t="str">
+        <f>IF(A12 = B13, 0, A12)</f>
+        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
+      </c>
+      <c r="F13">
+        <f>IF(B13 = A12, 0, IF(D13 = A12, 0, A12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="H14" s="2">
+        <f>SUM(H5:H12)/COUNT(H5:H12)</f>
+        <v>4.5</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="str">
-        <f>A3</f>
-        <v>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</v>
-      </c>
-      <c r="D5" t="str">
-        <f>IF(A3 = B5,"", A3)</f>
-        <v/>
-      </c>
-      <c r="F5">
-        <f>IF(B5 = A3, 0, IF(D5 = A3, 0, A3))</f>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <f>H38+H39+H40+H41+H42+H43</f>
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f>A4</f>
-        <v>Die Sensoren für die Haupt- und Nebenfunktionen müssen ausgewählt werden</v>
-      </c>
-      <c r="D6">
-        <f>IF(A4 = B6, 0, A4)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>IF(B6 = A4, 0, IF(D6 = A4, 0, A4))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f>A5</f>
-        <v>Aufbau des Joysticks auf dem Mindstorm-Controller</v>
-      </c>
-      <c r="D7">
-        <f>IF(A5 = B7, 0, A5)</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>IF(B7 = A5, 0, IF(D7 = A5, 0, A5))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <f>A6</f>
-        <v>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</v>
-      </c>
-      <c r="D8">
-        <f>IF(A6 = B8, 0, A6)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>IF(B8 = A6, 0, IF(D8 = A6, 0, A6))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f>A7</f>
-        <v>Aufbau des Magazins mit Dropdown Möglichkeit über einen kleinen Motor</v>
-      </c>
-      <c r="D9">
-        <f>IF(A7 = B9, 0, A7)</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>IF(B9 = A7, 0, IF(D9 = A7, 0, A7))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f>A8</f>
-        <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
-      </c>
-      <c r="D10">
-        <f>IF(A8 = B10, 0, A8)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>IF(B10 = A8, 0, IF(D10 = A8, 0, A8))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="2">
-        <f>H5+H6+H7+H8+H9+H10</f>
-        <v>6.5</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="I45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="2">
-        <f>H29+H30+H31+H32+H33+H34</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="D45" s="4"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="7"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="7"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="7"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="7"/>
+      <c r="D54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="1" max="46" man="1"/>
+    <brk id="1" max="53" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\RS_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23FDE3-8392-4291-A995-CDDF42C1CCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7398E75-6229-4A5F-BF5A-A1CDC2596515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B54FCB7-46C4-4142-A559-DF20E58FA1A1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</t>
   </si>
@@ -126,12 +126,24 @@
   </si>
   <si>
     <t>Product backlog Referenz-Task</t>
+  </si>
+  <si>
+    <t>Kommunikation zwischen Remote und Receiver erstellen</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 18.04.2024</t>
+  </si>
+  <si>
+    <t>Aufbau des Rotiermotors und der Halterung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,31 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF66CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9999FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,16 +217,13 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -581,32 +566,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFBF4A-C991-4A17-97F9-8FB0EFA4E178}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="71" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B49" zoomScale="68" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="118.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="109.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="109.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -631,25 +616,14 @@
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="str">
-        <f>IF(A3 = B5, 0, A3)</f>
-        <v>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F11" si="0">IF(B5 = A3, 0, IF(D5 = A3, 0, A3))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="7"/>
       <c r="F6" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6 = A4, 0, IF(D6 = A4, 0, A4))</f>
         <v>Die Sensoren für die Haupt- und Nebenfunktionen müssen ausgewählt werden</v>
       </c>
       <c r="H6" s="2">
@@ -660,9 +634,8 @@
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7"/>
       <c r="F7" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7 = A5, 0, IF(D7 = A5, 0, A5))</f>
         <v>Aufbau des Joysticks auf dem Mindstorm-Controller</v>
       </c>
       <c r="H7" s="2">
@@ -673,118 +646,53 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="str">
-        <f>IF(A6 = B8, 0, A6)</f>
-        <v>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>8</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="str">
-        <f>IF(A7 = B9, 0, A7)</f>
-        <v>Aufbau des Magazins mit Dropdown Möglichkeit mit Munitionsüberwachung</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>6</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="str">
-        <f>IF(A8 = B10, 0, A8)</f>
-        <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="str">
-        <f>A9</f>
-        <v>Aufbau Plan erstellen, für leichtes Nachbauen</v>
-      </c>
-      <c r="D11">
-        <f>IF(A9 = B11, 0, A9)</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="10" t="str">
-        <f>IF(A11 = B12, 0, A11)</f>
-        <v>Erstellung / Erweiterung des Product Backlogs</v>
-      </c>
-      <c r="F12">
-        <f>IF(B12 = A11, 0, IF(D12 = A11, 0, A11))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="10" t="str">
-        <f>IF(A12 = B13, 0, A12)</f>
-        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
-      </c>
-      <c r="F13">
-        <f>IF(B13 = A12, 0, IF(D13 = A12, 0, A12))</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="H14" s="2">
         <f>SUM(H5:H12)/COUNT(H5:H12)</f>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -795,7 +703,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6">
@@ -806,50 +714,45 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -871,73 +774,272 @@
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="2"/>
+      <c r="F39" s="5" t="str">
+        <f>IF(B39 = A6, 0, IF(D39 = A6, 0, A6))</f>
+        <v>Aufbau des Schiessmechanismus mit Zahnriemen und Motor</v>
+      </c>
+      <c r="H39" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="2"/>
+      <c r="F40" s="5" t="str">
+        <f t="shared" ref="F40:F41" si="0">IF(B40 = A7, 0, IF(D40 = A7, 0, A7))</f>
+        <v>Aufbau des Magazins mit Dropdown Möglichkeit mit Munitionsüberwachung</v>
+      </c>
+      <c r="H40" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="2"/>
+      <c r="F41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="2">
-        <f>H38+H39+H40+H41+H42+H43</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="F44" s="5" t="str">
+        <f t="shared" ref="F44" si="1">IF(B44 = A13, 0, IF(D44 = A13, 0, A13))</f>
+        <v>Erstellung / Erweiterung des des Aktivitätsdiagrammes</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="9">
+        <f>SUM(H38:H44)/COUNT(H38:H44)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="D48" s="4"/>
-    </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="7"/>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
       <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="str">
+        <f>A21</f>
+        <v>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf lässt</v>
+      </c>
+      <c r="D68">
+        <f xml:space="preserve"> IF(B68 =A21, 0,A21)</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>IF(B68 =A21, 0, IF(B68 =A21, 0,A21))</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="str">
+        <f t="shared" ref="B69:B71" si="2">A22</f>
+        <v>Ist die Munition knapp, soll eine akustische Meldung ertönen</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D71" si="3" xml:space="preserve"> IF(B69 =A22, 0,A22)</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F71" si="4">IF(B69 =A22, 0, IF(B69 =A22, 0,A22))</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>Durch betätigen der mittleren Taste soll das Gewehr schiessen, solange der Taster betätig ist (Vollautomatisch)</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>Nach jedem Schuss muss eine Abfrage gewiss vorhandener Munition im Lauf gestellt werden</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" t="str">
+        <f xml:space="preserve"> IF(B72 =A19, 0,A19)</f>
+        <v>Kommunikation zwischen Remote und Receiver erstellen</v>
+      </c>
+      <c r="F72">
+        <f>IF(B72 = A19, 0, IF(D72 =A19, 0,A19))</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="str">
+        <f>A11</f>
+        <v>Erstellung / Erweiterung des Product Backlogs</v>
+      </c>
+      <c r="D73">
+        <f xml:space="preserve"> IF(B73 =A11, 0,A11)</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>IF(B73 =A11, 0, IF(D73 =A11, 0,A11))</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="str">
+        <f>A12</f>
+        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
+      </c>
+      <c r="D74">
+        <f xml:space="preserve"> IF(B74 =A12, 0,A12)</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>IF(B74 =A12, 0, IF(D74 =A12, 0,A12))</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="9">
+        <f>SUM(H68:H74)/COUNT(H68:H74)</f>
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="1" max="53" man="1"/>
+    <brk id="1" max="84" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\RS_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7398E75-6229-4A5F-BF5A-A1CDC2596515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F3D3D-BC3C-4540-8B14-E6ABD972CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B54FCB7-46C4-4142-A559-DF20E58FA1A1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Aufbau des Rotiermotors und der Halterung</t>
+  </si>
+  <si>
+    <t>Magazin zähler verbessern</t>
+  </si>
+  <si>
+    <t>Sprint Backlog 19.04.2024</t>
   </si>
 </sst>
 </file>
@@ -566,18 +572,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFBF4A-C991-4A17-97F9-8FB0EFA4E178}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B49" zoomScale="68" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C53" zoomScale="52" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="108.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -880,124 +886,42 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" t="str">
-        <f>A21</f>
-        <v>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf lässt</v>
-      </c>
-      <c r="D68">
-        <f xml:space="preserve"> IF(B68 =A21, 0,A21)</f>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>IF(B68 =A21, 0, IF(B68 =A21, 0,A21))</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
-        <v>8</v>
-      </c>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" t="str">
-        <f t="shared" ref="B69:B71" si="2">A22</f>
-        <v>Ist die Munition knapp, soll eine akustische Meldung ertönen</v>
-      </c>
-      <c r="D69">
-        <f t="shared" ref="D69:D71" si="3" xml:space="preserve"> IF(B69 =A22, 0,A22)</f>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f t="shared" ref="F69:F71" si="4">IF(B69 =A22, 0, IF(B69 =A22, 0,A22))</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
-        <v>2</v>
-      </c>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" t="str">
-        <f t="shared" si="2"/>
+      <c r="F70" s="5" t="str">
+        <f>IF(B70 =A23, 0, IF(D70 =A23, 0,A23))</f>
         <v>Durch betätigen der mittleren Taste soll das Gewehr schiessen, solange der Taster betätig ist (Vollautomatisch)</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="H70" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" t="str">
-        <f t="shared" si="2"/>
+      <c r="F71" s="5" t="str">
+        <f>IF(B71 =A24, 0, IF(D71 =A24, 0,A24))</f>
         <v>Nach jedem Schuss muss eine Abfrage gewiss vorhandener Munition im Lauf gestellt werden</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="4"/>
-        <v>0</v>
       </c>
       <c r="H71" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D72" t="str">
-        <f xml:space="preserve"> IF(B72 =A19, 0,A19)</f>
-        <v>Kommunikation zwischen Remote und Receiver erstellen</v>
-      </c>
-      <c r="F72">
-        <f>IF(B72 = A19, 0, IF(D72 =A19, 0,A19))</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
-        <v>10</v>
-      </c>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" t="str">
-        <f>A11</f>
-        <v>Erstellung / Erweiterung des Product Backlogs</v>
-      </c>
-      <c r="D73">
-        <f xml:space="preserve"> IF(B73 =A11, 0,A11)</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>IF(B73 =A11, 0, IF(D73 =A11, 0,A11))</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
-        <v>2</v>
-      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="str">
-        <f>A12</f>
-        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
-      </c>
-      <c r="D74">
-        <f xml:space="preserve"> IF(B74 =A12, 0,A12)</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>IF(B74 =A12, 0, IF(D74 =A12, 0,A12))</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
-        <v>2</v>
-      </c>
+      <c r="H74" s="2"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H77" s="9">
         <f>SUM(H68:H74)/COUNT(H68:H74)</f>
-        <v>5.4285714285714288</v>
+        <v>7</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>19</v>
@@ -1013,33 +937,162 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" t="str">
+        <f>A21</f>
+        <v>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf lässt</v>
+      </c>
+      <c r="H98" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" t="str">
+        <f t="shared" ref="B99:B101" si="2">A22</f>
+        <v>Ist die Munition knapp, soll eine akustische Meldung ertönen</v>
+      </c>
+      <c r="H99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" t="str">
+        <f>A11</f>
+        <v>Erstellung / Erweiterung des Product Backlogs</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="str">
+        <f>A12</f>
+        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" t="str">
+        <f>A16</f>
+        <v>Joystick Mechanische Funktion testen</v>
+      </c>
+      <c r="H102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" t="str">
+        <f>A17</f>
+        <v>Joystick Taster Funktion zuweisen (oben, unten, links, rechts)</v>
+      </c>
+      <c r="H103" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" t="str">
+        <f>A18</f>
+        <v>Betätigen als Funktion  zum schiessen erstellen</v>
+      </c>
+      <c r="H104" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" t="str">
+        <f>A19</f>
+        <v>Kommunikation zwischen Remote und Receiver erstellen</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="9">
+        <f>SUM(H98:H104)/COUNT(H98:H104)</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="1" max="84" man="1"/>
+    <brk id="1" max="120" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\Projektwoche\RS_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F3D3D-BC3C-4540-8B14-E6ABD972CE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C5898-7E4E-43B3-8E72-AD98E0205F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B54FCB7-46C4-4142-A559-DF20E58FA1A1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$I$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>Die Bausteine für den Korrekten Aufbau der Hardware muss stets angepasst werden</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>Sprint Backlog 19.04.2024</t>
+  </si>
+  <si>
+    <t>Erneute  Anppassungen des Akitivitätsdiagrammmes</t>
+  </si>
+  <si>
+    <t>Die Bausteine für den korrekten Aufbau der Hardware müssen stets angepasst werden</t>
+  </si>
+  <si>
+    <t>Erstellung / Erweiterung der User-Stories</t>
+  </si>
+  <si>
+    <t>Aufbau des Geschützhalters mit Motor</t>
+  </si>
+  <si>
+    <t>Remote und Receiver für die Kommunikation der Steuerung</t>
+  </si>
+  <si>
+    <t>Die Munition wird nach Abfragen in den Lauf geladen und schliesst sich danach wieder</t>
+  </si>
+  <si>
+    <t>Das Magazin wird verkleinert für eine genauere Abfrage des Inhalts</t>
+  </si>
+  <si>
+    <t>Beim Drücken der Taste «Rechts», schwenkt der Warshooter nach rechts und bei «Links» nach links</t>
+  </si>
+  <si>
+    <t>Die vorhandene Munition wird auf dem Display Remote angegeben</t>
+  </si>
+  <si>
+    <t>Nach dem letzten Schuss ertönt ein akustisches Signal welches einen darauf hinweist, dass keine Munition mehr vorhanden ist</t>
   </si>
 </sst>
 </file>
@@ -150,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +195,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -211,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,6 +265,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,18 +611,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEFBF4A-C991-4A17-97F9-8FB0EFA4E178}">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C53" zoomScale="52" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B85" zoomScale="55" zoomScaleNormal="92" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="109.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="129.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -790,7 +830,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="str">
-        <f t="shared" ref="F40:F41" si="0">IF(B40 = A7, 0, IF(D40 = A7, 0, A7))</f>
+        <f>IF(B40 = A7, 0, IF(D40 = A7, 0, A7))</f>
         <v>Aufbau des Magazins mit Dropdown Möglichkeit mit Munitionsüberwachung</v>
       </c>
       <c r="H40" s="2">
@@ -799,7 +839,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F41" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B41 = A8, 0, IF(D41 = A8, 0, A8))</f>
         <v>Simple Funktionskontrolle des Aufbaus, die mechanische Funktion prüfen</v>
       </c>
       <c r="H41" s="2">
@@ -816,7 +856,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F44" s="5" t="str">
-        <f t="shared" ref="F44" si="1">IF(B44 = A13, 0, IF(D44 = A13, 0, A13))</f>
+        <f>IF(B44 = A13, 0, IF(D44 = A13, 0, A13))</f>
         <v>Erstellung / Erweiterung des des Aktivitätsdiagrammes</v>
       </c>
       <c r="H44" s="2">
@@ -980,119 +1020,167 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" t="str">
-        <f>A21</f>
-        <v>Dropdown System erstellen welches nach einem Schuss, Munition in den Lauf lässt</v>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="H98" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" t="str">
-        <f t="shared" ref="B99:B101" si="2">A22</f>
-        <v>Ist die Munition knapp, soll eine akustische Meldung ertönen</v>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="H99" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B100" t="str">
-        <f>A11</f>
-        <v>Erstellung / Erweiterung des Product Backlogs</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H100" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B101" t="str">
-        <f>A12</f>
-        <v>Erstellung / Erweiterung des Sprint Backlogs, Sprintreviews</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="H101" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" t="str">
-        <f>A16</f>
-        <v>Joystick Mechanische Funktion testen</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B103" t="str">
-        <f>A17</f>
-        <v>Joystick Taster Funktion zuweisen (oben, unten, links, rechts)</v>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" t="str">
-        <f>A18</f>
-        <v>Betätigen als Funktion  zum schiessen erstellen</v>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" t="str">
-        <f>A19</f>
-        <v>Kommunikation zwischen Remote und Receiver erstellen</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H107" s="9">
-        <f>SUM(H98:H104)/COUNT(H98:H104)</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="I107" s="1" t="s">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="9">
+        <f>SUM(H98:H112)/COUNT(H98:H112)</f>
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="3" t="s">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D115" s="4"/>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D124" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="22" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="20" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="1" max="120" man="1"/>
+    <brk id="1" max="123" man="1"/>
   </colBreaks>
 </worksheet>
 </file>